--- a/SuppXLS/Scen_Prices_HighOil_R5.xlsx
+++ b/SuppXLS/Scen_Prices_HighOil_R5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DE5DE-9098-4494-922F-0AEB1DFB319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44A602-C249-4834-91EF-ED5DDC9ED5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="3450" windowWidth="14970" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasoAlternativo" sheetId="3" r:id="rId1"/>
@@ -940,6 +940,1368 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gasolina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$81:$Q$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.996427945518999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.491360025404003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.547421569079997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.024909051576003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.898836159393994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.688749703397008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.537161552070998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.804000484833004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Diésel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$82:$Q$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.905026160941002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.237831286772998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.190576998933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.705944935650997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.889889701978994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.650082548313001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.097377307522002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.853150470433008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Keroseno-Jet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$83:$Q$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.877034192216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.954588421432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.371681055696005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.021204906228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.437859598029998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.261505949063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.688615049622996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.602785493940004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CasoAlternativo!$I$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LPG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$84:$Q$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.551047751146001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.045582670203999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.990463460658003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.844807772446998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.179621309749997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.761107999819004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.302257494001999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.799493666006001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fuel Oil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$85:$Q$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.3223337201280021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.72703456943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.950516625104001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.011837567057004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.103288663623001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.621477290980998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.186885200710002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.538456117069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Etanol</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$80:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CasoAlternativo!$J$86:$Q$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.484369752577541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.267547210351818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.076228516171685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.475113595146638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.499449139045872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.021512547352661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.226404215831689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.973992561674077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C33-4137-974A-A9C3943B5BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1546880048"/>
+        <c:axId val="1546883376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1546880048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546883376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1546883376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546880048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1217,6 +2579,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>116898</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>32471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>111702</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>108671</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7929BA2F-3379-1953-5239-F940CA3B475B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23560,8 +24958,8 @@
   </sheetPr>
   <dimension ref="A1:AO291"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q244" sqref="Q244:Q251"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
